--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2539.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2539.xlsx
@@ -354,7 +354,7 @@
         <v>2.780740513100575</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.348528136180867</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2539.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2539.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.451926376711454</v>
+        <v>1.775216579437256</v>
       </c>
       <c r="B1">
-        <v>2.780740513100575</v>
+        <v>2.185456037521362</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.678494453430176</v>
       </c>
       <c r="D1">
-        <v>1.348528136180867</v>
+        <v>6.041849136352539</v>
       </c>
       <c r="E1">
-        <v>1.182796930787178</v>
+        <v>0.854672908782959</v>
       </c>
     </row>
   </sheetData>
